--- a/src/assets/docs/Guest List Upload format 2.xlsx
+++ b/src/assets/docs/Guest List Upload format 2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>First Name (REQUIRED)</t>
   </si>
@@ -22,13 +22,10 @@
     <t xml:space="preserve">Email </t>
   </si>
   <si>
-    <t xml:space="preserve">Note </t>
+    <t>Note/Affiliation</t>
   </si>
   <si>
-    <t xml:space="preserve">Addtional guests </t>
-  </si>
-  <si>
-    <t xml:space="preserve">F for Female/ M for Male </t>
+    <t xml:space="preserve">Number of addtional guests  </t>
   </si>
 </sst>
 </file>
@@ -91,7 +88,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -106,7 +103,7 @@
     <col customWidth="1" min="2" max="2" width="27.86"/>
     <col customWidth="1" min="3" max="3" width="24.14"/>
     <col customWidth="1" min="4" max="4" width="28.86"/>
-    <col customWidth="1" min="5" max="5" width="24.29"/>
+    <col customWidth="1" min="5" max="5" width="29.86"/>
     <col customWidth="1" min="6" max="6" width="27.86"/>
   </cols>
   <sheetData>
@@ -126,9 +123,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
